--- a/Python2/Cheat_Sheet2.xlsx
+++ b/Python2/Cheat_Sheet2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GSB/Documents/2024/CUNY/Python2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GSB/Documents/2024/CUNY/Python2/Python2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60620A0A-F82E-194C-8FFC-E3A3B5167EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D54F5E-2AED-F841-9E99-B990870BDFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2440" windowWidth="24180" windowHeight="17080" firstSheet="3" activeTab="8" xr2:uid="{78D90E6A-84B8-CE45-89A0-B6509A31357A}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="24180" windowHeight="17080" firstSheet="7" activeTab="10" xr2:uid="{78D90E6A-84B8-CE45-89A0-B6509A31357A}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1A" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,12 @@
     <sheet name="Wk04-scraping-nontabular" sheetId="2" r:id="rId6"/>
     <sheet name="Wk04-tabular-scrapes" sheetId="4" r:id="rId7"/>
     <sheet name="Wk05-nontabular-multipage" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
-    <sheet name="MASTER" sheetId="10" r:id="rId10"/>
+    <sheet name="wk09-liberating-pdfs" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId10"/>
+    <sheet name="Wk10-Regular Expressions" sheetId="12" r:id="rId11"/>
+    <sheet name="MASTER" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4167" uniqueCount="1675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4984" uniqueCount="2385">
   <si>
     <t>Python Review</t>
   </si>
@@ -6672,12 +6674,3376 @@
   <si>
     <t>Converting Data Types</t>
   </si>
+  <si>
+    <t>Skip to main content</t>
+  </si>
+  <si>
+    <t>wk09-liberating-pdfs-BLANKs.ipynb_</t>
+  </si>
+  <si>
+    <t>keyboard_arrow_down</t>
+  </si>
+  <si>
+    <t>Liberating Data from PDFs</t>
+  </si>
+  <si>
+    <t>Like it or not, many institutions love to cram data into PDFs. This data can take the form of unstructured text (like memos, emails, court filings) that we may want to pull into a spreadsheet. Or it may just be tables locked into PDFs.</t>
+  </si>
+  <si>
+    <t>Today we'll learn to:</t>
+  </si>
+  <si>
+    <t>Unlock tables</t>
+  </si>
+  <si>
+    <t>Extract text held in PDFs</t>
+  </si>
+  <si>
+    <t>Deal with obnoxious PDFs</t>
+  </si>
+  <si>
+    <t>Tables scattered in PDFs</t>
+  </si>
+  <si>
+    <t>As it is, PDFs are notoriously obnoxious. They are designed so people can't change them easily.</t>
+  </si>
+  <si>
+    <t>PDFs that hold tables are pretty much the worst.</t>
+  </si>
+  <si>
+    <t>We want to scrape data from these sample digital PDFs.</t>
+  </si>
+  <si>
+    <t>You might have worked with the Tabula GUI to extract tables from PDFs. But there's a lot of manual work involved.</t>
+  </si>
+  <si>
+    <r>
+      <t>To automate the process, we'll use the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tabula Python Library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>There's NO satisfaction guarantee, but at least it's a way to try to tackle PDFs with tables.</t>
+  </si>
+  <si>
+    <r>
+      <t>Use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>!pip install tabula-py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> in a code cell.</t>
+    </r>
+  </si>
+  <si>
+    <t>[ ]</t>
+  </si>
+  <si>
+    <t>pip install -q tabula-py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━ 12.0/12.0 MB 31.0 MB/s eta 0:00:00</t>
+  </si>
+  <si>
+    <r>
+      <t>You may need </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>pip install install-jdk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> the first time you run this package.</t>
+    </r>
+  </si>
+  <si>
+    <t>pip install install-jdk</t>
+  </si>
+  <si>
+    <t>Collecting install-jdk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Downloading install_jdk-1.1.0-py3-none-any.whl.metadata (12 kB)</t>
+  </si>
+  <si>
+    <t>Downloading install_jdk-1.1.0-py3-none-any.whl (15 kB)</t>
+  </si>
+  <si>
+    <t>Installing collected packages: install-jdk</t>
+  </si>
+  <si>
+    <t>Successfully installed install-jdk-1.1.0</t>
+  </si>
+  <si>
+    <t>## import needed packages and libraries</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> pandas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> pd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>## pandas to work with data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> tabula</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tabula.environment_info() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>## not need always ## check it's versioning</t>
+    </r>
+  </si>
+  <si>
+    <t>Python version:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.10.12 (main, Sep 11 2024, 15:47:36) [GCC 11.4.0]</t>
+  </si>
+  <si>
+    <t>Java version:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    openjdk version "11.0.24" 2024-07-16</t>
+  </si>
+  <si>
+    <t>OpenJDK Runtime Environment (build 11.0.24+8-post-Ubuntu-1ubuntu322.04)</t>
+  </si>
+  <si>
+    <t>OpenJDK 64-Bit Server VM (build 11.0.24+8-post-Ubuntu-1ubuntu322.04, mixed mode, sharing)</t>
+  </si>
+  <si>
+    <t>tabula-py version: 2.10.0</t>
+  </si>
+  <si>
+    <t>platform: Linux-6.1.85+-x86_64-with-glibc2.35</t>
+  </si>
+  <si>
+    <t>uname:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    uname_result(system='Linux', node='83d06cfa4d69', release='6.1.85+', version='#1 SMP PREEMPT_DYNAMIC Thu Jun 27 21:05:47 UTC 2024', machine='x86_64')</t>
+  </si>
+  <si>
+    <t>linux_distribution: ('Ubuntu', '22.04', 'jammy')</t>
+  </si>
+  <si>
+    <t>mac_ver: ('', ('', '', ''), '')</t>
+  </si>
+  <si>
+    <t>Still having problems?</t>
+  </si>
+  <si>
+    <r>
+      <t>Are you getting a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>JDK error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> within your notebook?</t>
+    </r>
+  </si>
+  <si>
+    <t>Try this: I installed the latest version of Oracle’s Java JDK. For those with an M1 machine, the appropriate one is the ARM file under the MacOS tab; for those with intel, it’s the x64.</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/java/technologies/downloads/#jdk17-mac</t>
+  </si>
+  <si>
+    <t># Suppress the specific FutureWarning</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> warnings</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>warnings.filterwarnings(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"ignore"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>, category=FutureWarning, message=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>".*errors='ignore' is deprecated.*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>## Let's pull in our first pdf with a single page, single table</t>
+  </si>
+  <si>
+    <r>
+      <t>t1 = tabula.read_pdf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"mockup1.pdf"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>WARNING:tabula.util:'pages' argument isn't specified.Will extract only from page 1 by default.</t>
+  </si>
+  <si>
+    <t>[   Fringe Benefit Expenses (in millions) Fiscal 2019 Fiscal 2020  \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0                       Health Insurance      $6,268      $7,173   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1                        Social Security      $2,161      $2,224   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2          Supplemental Welfare Benefits      $1,259      $1,333   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3                  Worker's Compensation        $343        $369   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4                  Annuity Contributions        $117        $120   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5                 Allowance for Uniforms         $72         $71   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6      Worker's Compensation - Uniformed         $41         $42   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7                 Unemployment Insurance         $36         $38   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8                  Other Fringe Benefits         $12         $12   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9               Faculty Welfare Benefits         $33         $10   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10                  Disability Insurance          $1          $1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11                                Total*     $10,642     $11,394   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Percent Change  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0             14%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1              3%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2              6%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3              8%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4              3%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5             -1%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6              4%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7              3%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8             -3%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9            -69%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10             0%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11             7%  ]</t>
+  </si>
+  <si>
+    <t>## WHAT TYPE OF DATA?</t>
+  </si>
+  <si>
+    <r>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0431FA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>t1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0431FA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>## what does this list hold?</t>
+  </si>
+  <si>
+    <r>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0431FA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>t1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF319331"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF319331"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0431FA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>## let's get the first table</t>
+  </si>
+  <si>
+    <r>
+      <t>df1 = t1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0431FA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF116644"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0431FA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>## store into df</t>
+  </si>
+  <si>
+    <t>## Export and download as CSV file</t>
+  </si>
+  <si>
+    <r>
+      <t>df1.to_csv(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"table1.csv"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>, encoding = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"UTF-8"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>, index = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Multiple pages/ Multiple tables</t>
+  </si>
+  <si>
+    <t>We at target our PDF for multiple pages and tables</t>
+  </si>
+  <si>
+    <t>## pdf2</t>
+  </si>
+  <si>
+    <r>
+      <t>t2 = tabula.read_pdf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"mockup2.pdf"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>, pages=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"1-2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11             7%  ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              Unnamed: 0   FY19  FY20  Unnamed: 1  FY21  \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0                         Real Property  ($70)    $0         NaN    $0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1                       Personal Income    284   152         NaN   120   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2                   General Corporation     71    71         NaN    67   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3               Unincorporated Business    -52  -189         NaN  -133   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4                         Sales and Use     18    98         NaN   114   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5                       Commercial Rent     11    15         NaN    16   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6                Real Property Transfer    -30    45         NaN    44   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7                    Mortgage Recording    -24    25         NaN    24   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8                               Utility      0     1         NaN     0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9                                 Hotel      5    -9         NaN     1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10                            All Other    -11     0         NaN     0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11  Total Executive 2020 Financial Plan    NaN   NaN         NaN   NaN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12                              Changes   $202  $209         NaN  $253   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Unnamed: 2  FY22  Unnamed: 3  FY23  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0          NaN    $0         NaN    $0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1          NaN   122         NaN    87  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2          NaN    78         NaN    41  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3          NaN  -106         NaN  -110  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4          NaN   112         NaN   112  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5          NaN    18         NaN    18  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6          NaN    48         NaN    45  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7          NaN    27         NaN    25  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8          NaN     0         NaN     0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9          NaN     0         NaN     7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10         NaN     0         NaN     0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11         NaN   NaN         NaN   NaN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12         NaN  $299         NaN  $225  ]</t>
+  </si>
+  <si>
+    <t>## table extraction</t>
+  </si>
+  <si>
+    <r>
+      <t>t1[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF116644"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>## let's get the second table</t>
+  </si>
+  <si>
+    <t>Foundational Multi-page, Multi-table</t>
+  </si>
+  <si>
+    <t>Campaign contribution demo</t>
+  </si>
+  <si>
+    <t>## path to our "campaign_contribs.pdf" PDF</t>
+  </si>
+  <si>
+    <t># pdf3 = "pdf_samples/pa-oct-1-contribs.pdf"</t>
+  </si>
+  <si>
+    <r>
+      <t>pdf3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"contribs-excerpt.pdf"</t>
+    </r>
+  </si>
+  <si>
+    <t>pdf3</t>
+  </si>
+  <si>
+    <t>## get all the pages</t>
+  </si>
+  <si>
+    <r>
+      <t>tables = tabula.read_pdf(pdf3, pages=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"all"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>tables</t>
+  </si>
+  <si>
+    <t>[          committee name state contrib_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0   Harris for President    AK         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1    Trump for President    AL         $2,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2   Harris for President    AL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3    Trump for President    AR         $5,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4    Trump for President    AZ         $2,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5   Harris for President    AZ         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6    Trump for President    CA         $2,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7    Trump for President    CA         $2,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8    Trump for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9    Trump for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10   Trump for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11   Trump for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12   Trump for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13   Trump for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14   Trump for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15   Trump for President    CA         $5,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16  Harris for President    CA         $2,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17  Harris for President    CA         $2,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18  Harris for President    CA         $2,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19  Harris for President    CA         $2,300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20  Harris for President    CA         $2,400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21  Harris for President    CA         $2,700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22  Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23  Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24  Harris for President    CA         $2,800,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           committee name state contrib_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0   Harris for President    DC         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1   Harris for President    DC         $5,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2   Harris for President    DC         $5,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3    Trump for President    FL         $2,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4    Trump for President    FL         $2,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5    Trump for President    FL         $2,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6    Trump for President    FL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7    Trump for President    FL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8    Trump for President    FL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9    Trump for President    FL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10   Trump for President    FL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11   Trump for President    FL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12   Trump for President    FL         $5,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13  Harris for President    FL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14  Harris for President    FL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15  Harris for President    FL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16  Harris for President    FL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17  Harris for President    FL         $5,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18   Trump for President    GA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19   Trump for President    GA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20   Trump for President    GA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21   Trump for President    GA         $5,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22   Trump for President    GA         $5,000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0   Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1   Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2   Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3   Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4   Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5   Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6   Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7   Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8   Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9   Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10  Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11  Harris for President    CA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12  Harris for President    CA         $5,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13  Harris for President    CA         $5,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14  Harris for President    CA         $5,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15  Harris for President    CA         $5,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16  Harris for President    CA         $5,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17   Trump for President    CO         $2,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18   Trump for President    CO         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19  Harris for President    CO         $2,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20   Trump for President    CT         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21  Harris for President    CT         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22  Harris for President    CT         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23  Harris for President    DC         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24  Harris for President    DC         $2,800,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0   Harris for President    GA         $3,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1   Harris for President    GA         $5,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2   Harris for President    HI         $2,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3   Harris for President    HI         $5,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4   Harris for President    IL         $2,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5   Harris for President    IL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6   Harris for President    IL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7   Harris for President    IL         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8   Harris for President    IL         $5,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9    Trump for President    IN         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10   Trump for President    IN         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11  Harris for President    IN         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12   Trump for President    KY         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13  Harris for President    KY         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14  Harris for President    LA         $5,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15  Harris for President    LA         $5,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16  Harris for President    LA         $5,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17  Harris for President    LA         $5,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18  Harris for President    LA         $5,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19   Trump for President    MA         $2,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20   Trump for President    MA         $4,050</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21  Harris for President    MA         $2,550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22  Harris for President    MA         $2,600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23  Harris for President    MA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24  Harris for President    MA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25  Harris for President    MA         $2,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26  Harris for President    MA         $2,800]</t>
+  </si>
+  <si>
+    <t>## confirm we have the correct number of tables. should have 601 tables</t>
+  </si>
+  <si>
+    <t>## check out a couple of tables</t>
+  </si>
+  <si>
+    <r>
+      <t>tables[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF116644"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tables[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF116644"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>## combine all the tables into one df</t>
+  </si>
+  <si>
+    <r>
+      <t>df = pd.concat(tables, ignore_index = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>#df.head(25)</t>
+  </si>
+  <si>
+    <t>#df.tail(25)</t>
+  </si>
+  <si>
+    <t>Reality Check</t>
+  </si>
+  <si>
+    <t>## import who_covid.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>pdf4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"who_covid.pdf"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>who_df = tabula.read_pdf(pdf4, pages=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"3-4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>who_df</t>
+  </si>
+  <si>
+    <t>[              Province/  Unnamed: 0  Unnamed: 1  Unnamed: 2  Daily Unnamed: 3  \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0                   NaN  Population         NaN         NaN    NaN        NaN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1               Region/         NaN         NaN         NaN    NaN        NaN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2                   NaN   (10,000s)  Laboratory  Clinically  Total  Suspected   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3                  City         NaN   confirmed   diagnosed  cases      cases   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4                 Hubei        5917         955         888   1843       1036   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5             Guangdong       11346          22           -     22          2   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6                 Henan        9605          19           -     19        137   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7              Zhejiang        5737           5           -      5         23   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8                 Hunan        6899           3           -      3         36   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9                 Anhui        6324          12           -     12          6   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10              Jiangxi        4648          13           -     13          7   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11              Jiangsu        8051          13           -     13          9   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12            Chongqing        3102           7           -      7         75   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13             Shandong       10047           7           -      7         22   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14              Sichuan        8341          11           -     11         46   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15         Heilongjiang        3773          20           -     20         44   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16              Beijing        2154           5           -      5         35   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17             Shanghai        2424           2           -      2         75   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18                Hebei        7556           9           -      9          2   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19               Fujian        3941           2           -      2          2   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20              Guangxi        4926           2           -      2         49   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21              Shaanxi        3864           4           -      4         15   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22               Yunnan        4830           1           -      1         37   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23               Hainan         934           0           -      0         30   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24              Guizhou        3600           1           -      1          8   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25               Shanxi        3718           1           -      1         15   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26              Tianjin        1560           2           -      2        109   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27             Liaoning        4359           1           -      1         69   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28                Gansu        2637           0           -      0          1   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29                Jilin        2704           1           -      1         16   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30             Xinjiang        2487           1           -      1          3   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31              Ningxia         688           0           -      0          5   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32       Inner Mongolia        2534           2           -      2          4   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33        Hong Kong Sar         745           0           -      0          0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34  Taipei and environs        2359           0           -      0          0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35              Qinghai         603           0           -      0          0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36            Macao Sar          66           0           -      0          0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37               Xizang         344           0           -      0          0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38               Totals      142823        1121         888   2009       1918   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Unnamed: 4  Unnamed: 5        Cumulative Unnamed: 6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0         NaN         NaN               NaN        NaN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1         NaN         NaN               NaN        NaN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2      Deaths  Laboratory  Clinically Total     Deaths  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3         NaN   confirmed   diagnosed cases        NaN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4         139       38839       17410 56249       1596  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5           0        1316            - 1316          2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6           0        1231            - 1231         13  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7           0        1167            - 1167          0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8           1        1004            - 1004          3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9           0         962             - 962          6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10          0         925             - 925          1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11          0         617             - 617          0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12          0         544             - 544          5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13          0         537             - 537          2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14          2         481             - 481          3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15          0         445             - 445         11  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16          0         380             - 380          4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17          0         328             - 328          1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18          0         300             - 300          3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19          0         287             - 287          0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20          0         237             - 237          2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21          0         236             - 236          0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22          0         169             - 169          0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23          0         162             - 162          4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24          0         144             - 144          1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25          0         128             - 128          0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26          0         122             - 122          3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27          0         120             - 120          1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28          0          90              - 90          2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29          0          89              - 89          1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30          0          71              - 71          1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31          0          70              - 70          0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32          0          70              - 70          0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33          0          56              - 56          1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34          0          18              - 18          0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35          0          18              - 18          0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36          0          10              - 10          0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37          0           1               - 1          0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38        142       51174       17410 68584       1666  ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     Unnamed: 0  Unnamed: 1   Unnamed: 2  \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0                                          NaN         NaN          NaN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1                                          NaN         NaN   Confirmed*   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2            WHO Region Country/Territory/Area         NaN          NaN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3                                          NaN         NaN  cases (new)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4                                          NaN         NaN          NaN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5                                          NaN         NaN          NaN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6                                    Singapore         NaN       72 (5)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7                                        Japan         NaN      53 (12)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8                            Republic of Korea         NaN       29 (1)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9              Western Pacific Region Malaysia         NaN       22 (1)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10                                    Viet Nam         NaN       16 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11                                   Australia         NaN       15 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12                                 Philippines         NaN        3 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13                                    Cambodia         NaN        1 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14                                    Thailand         NaN       34 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15                                       India         NaN        3 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16                      South-East Asia Region         NaN          NaN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17                                       Nepal         NaN        1 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18                                   Sri Lanka         NaN        1 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19                            United States of         NaN          NaN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20              Region of the Americas America         NaN       15 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21                                      Canada         NaN        7 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22                                     Germany         NaN       16 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23                                      France         NaN       12 (1)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24                          The United Kingdom         NaN        9 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25                                       Italy         NaN        3 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26          European Region Russian Federation         NaN        2 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27                                       Spain         NaN        2 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28                                     Belgium         NaN        1 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29                                     Finland         NaN        1 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30                                      Sweden         NaN        1 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31  Eastern Mediterranean United Arab Emirates         NaN        8 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32                                Region Egypt         NaN        1 (0)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33                               International         NaN          NaN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34                                       Other         NaN          NaN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35                        conveyance‡‡ (Japan)         NaN    355 (137)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       Total Total cases with T otal cases with    Unnamed: 3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0                cases with      possible or           site of           NaN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1                    travel        confirmed      transmission  Total deaths  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2                       NaN              NaN               NaN           NaN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3                history to     transmission             under         (new)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4   China outside of China†              NaN     investigation           NaN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5                     (new)            (new)             (new)           NaN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6                    22 (0)           49 (5)             1 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7                    26 (1)          27 (11)             0 (0)         1 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8                    13 (0)          13‡ (1)             3 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9                    17 (0)           4§ (0)             1 (1)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10                    8 (0)            8 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11                   12 (0)            3 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12                    3 (0)            0 (0)             0 (0)         1 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13                    1 (0)            0 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14                   23 (0)            7 (0)             4 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15                    3 (0)            0 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16                      NaN              NaN               NaN           NaN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17                    1 (0)            0 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18                    1 (0)            0 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19                      NaN              NaN               NaN           NaN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20                   13 (0)            2 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21                    6 (0)            0 (0)             1 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22                    2 (0)           14 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23                    5 (0)            7 (1)             0 (0)         1 (1)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24                    2 (0)          7** (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25                    3 (0)            0 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26                    2 (0)            0 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27                    0 (0)          2†† (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28                    1 (0)            0 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29                    1 (0)            0 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30                    1 (0)            0 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31                    6 (0)            1 (0)             1 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32                    0 (0)            1 (0)             0 (0)         0 (0)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33                      NaN              NaN               NaN           NaN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34                      NaN              NaN               NaN           NaN  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35                    0 (0)            0 (0)         355 (137)         0 (0)  ]</t>
+  </si>
+  <si>
+    <t>## call the first table on page 3</t>
+  </si>
+  <si>
+    <r>
+      <t>who_df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF116644"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Compare to actual PDF table.</t>
+  </si>
+  <si>
+    <t>What is happening?</t>
+  </si>
+  <si>
+    <t>No Satisfaction Guarantee</t>
+  </si>
+  <si>
+    <t>What did I mean by that?</t>
+  </si>
+  <si>
+    <t>The results really depend on the PDF and how it was put together.</t>
+  </si>
+  <si>
+    <t>Here are some issues you will encounter:</t>
+  </si>
+  <si>
+    <t>The Tables have too many sub-columns and sub-rows and groupings (bad_table.pdf)</t>
+  </si>
+  <si>
+    <t>Multiple different tables on the same page that are too close together will be processed as a single table and be an utter mess.</t>
+  </si>
+  <si>
+    <t>Documents and reports that have been scanned and are really images of PDFs can't be processed with Tabula or PyPDF2. Tables on these types of scans require advanced Python and graphical analysis skills beyond the scope of this course.</t>
+  </si>
+  <si>
+    <t>Extracting Text from PDFs</t>
+  </si>
+  <si>
+    <t>In many cases, we just need the text from a single or multiple PDFs so we can convert them to structured data or run natural language analysis on them.</t>
+  </si>
+  <si>
+    <r>
+      <t>It will depend on the type of PDFs we are dealing. Some PDFs are good, others just okay and some are just </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>very, very bad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>This folder contains PDFs that come in many different flavors. Download it and place in the same directory as your notebook.</t>
+  </si>
+  <si>
+    <t>Here are several strategies:</t>
+  </si>
+  <si>
+    <t>Good PDFs</t>
+  </si>
+  <si>
+    <t>Well-behaving PDFs are those that were the digital text can easily be copied and pasted. We just don't want to copy and paste for hundreds of files.</t>
+  </si>
+  <si>
+    <t>We'll use one of the most modern packages used to read PDFs to incorporate into Large Language Models.</t>
+  </si>
+  <si>
+    <t>pip install pymupdf4llm</t>
+  </si>
+  <si>
+    <t>Collecting pymupdf4llm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Downloading pymupdf4llm-0.0.17-py3-none-any.whl.metadata (4.1 kB)</t>
+  </si>
+  <si>
+    <t>Collecting pymupdf&gt;=1.24.10 (from pymupdf4llm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Downloading PyMuPDF-1.24.13-cp39-abi3-manylinux2014_x86_64.manylinux_2_17_x86_64.whl.metadata (3.4 kB)</t>
+  </si>
+  <si>
+    <t>Downloading pymupdf4llm-0.0.17-py3-none-any.whl (26 kB)</t>
+  </si>
+  <si>
+    <t>Downloading PyMuPDF-1.24.13-cp39-abi3-manylinux2014_x86_64.manylinux_2_17_x86_64.whl (19.8 MB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━━ 19.8/19.8 MB 74.6 MB/s eta 0:00:00</t>
+  </si>
+  <si>
+    <t>Installing collected packages: pymupdf, pymupdf4llm</t>
+  </si>
+  <si>
+    <t>Successfully installed pymupdf-1.24.13 pymupdf4llm-0.0.17</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> pymupdf4llm</t>
+    </r>
+  </si>
+  <si>
+    <t>to_markdown()</t>
+  </si>
+  <si>
+    <r>
+      <t>pymupdf4llm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> has a power </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>to_markdown()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> method.</t>
+    </r>
+  </si>
+  <si>
+    <t>Provide a path to your PDF and it stores the text.</t>
+  </si>
+  <si>
+    <t># Extract a simple PDF content as Markdown</t>
+  </si>
+  <si>
+    <r>
+      <t>md_text = pymupdf4llm.to_markdown(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"simple.pdf"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>md_text</t>
+  </si>
+  <si>
+    <t>You don't need to read an entire PDF. You can just specify a page, or a range of pages.</t>
+  </si>
+  <si>
+    <t>## extract single page</t>
+  </si>
+  <si>
+    <r>
+      <t>md_text5 = pymupdf4llm.to_markdown(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"simple.pdf"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>, pages=[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF116644"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>])</t>
+    </r>
+  </si>
+  <si>
+    <t>md_text5</t>
+  </si>
+  <si>
+    <t>Extract a range of pages</t>
+  </si>
+  <si>
+    <t>## create a range of pages + some</t>
+  </si>
+  <si>
+    <r>
+      <t>start_page, end_page = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF116644"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF116644"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>page_range = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF257693"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>(start_page, end_page))</t>
+    </r>
+  </si>
+  <si>
+    <t>page_range</t>
+  </si>
+  <si>
+    <t>[0, 1, 2]</t>
+  </si>
+  <si>
+    <t>## extract range page</t>
+  </si>
+  <si>
+    <r>
+      <t>pymupdf4llm.to_markdown(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"simple.pdf"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>, pages = page_range)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>page_range = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF257693"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>(start_page, end_page)) + [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF116644"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>[0, 1, 2, 4]</t>
+  </si>
+  <si>
+    <r>
+      <t>md_text_mixed = pymupdf4llm.to_markdown(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"simple.pdf"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>, pages = page_range)</t>
+    </r>
+  </si>
+  <si>
+    <t>md_text_mixed</t>
+  </si>
+  <si>
+    <r>
+      <t>We can write it to an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> file in case we want to hold on to it.</t>
+    </r>
+  </si>
+  <si>
+    <t># Specify the output Markdown file</t>
+  </si>
+  <si>
+    <r>
+      <t>output_file_path = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"text_mixed.md"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>(output_file_path, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"w"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> f:</t>
+    </r>
+  </si>
+  <si>
+    <t>  f.write(md_text_mixed)</t>
+  </si>
+  <si>
+    <t>## Let's turn into a function</t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>export_to_markdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>input_text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF001080"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>output_path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF795E26"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>(output_path, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"w"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> f:</t>
+    </r>
+  </si>
+  <si>
+    <t>      f.write(input_text)</t>
+  </si>
+  <si>
+    <t>## export range to md</t>
+  </si>
+  <si>
+    <r>
+      <t>export_to_markdown(md_text_mixed, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"md2.md"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Now the problematic kids...</t>
+  </si>
+  <si>
+    <t>## another with image and text</t>
+  </si>
+  <si>
+    <t>## This one doesn't quite work</t>
+  </si>
+  <si>
+    <r>
+      <t>pdf_path = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"Aug-20.pdf"</t>
+    </r>
+  </si>
+  <si>
+    <t>extract = pymupdf4llm.to_markdown(pdf_path)</t>
+  </si>
+  <si>
+    <t>extract</t>
+  </si>
+  <si>
+    <t># on file with all text</t>
+  </si>
+  <si>
+    <r>
+      <t>pdf_path = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"Jul-19.pdf"</t>
+    </r>
+  </si>
+  <si>
+    <t>## save in md file</t>
+  </si>
+  <si>
+    <r>
+      <t>export_to_markdown(extract, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"july19.md"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>## how about as an md file?</t>
+  </si>
+  <si>
+    <r>
+      <t>pdf_path = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"columbus_bank_trust.pdf"</t>
+    </r>
+  </si>
+  <si>
+    <t>Obnoxious PDF</t>
+  </si>
+  <si>
+    <t>## read "columbus_bank_trust.pdf" to a text docucment</t>
+  </si>
+  <si>
+    <t>## read and store document in an object</t>
+  </si>
+  <si>
+    <t>Strategy to Vanquish Obnoxious PDFs</t>
+  </si>
+  <si>
+    <t>The problem:</t>
+  </si>
+  <si>
+    <t>PDFs all have different encodings: UTF-8, ASCII, Unicode, etc</t>
+  </si>
+  <si>
+    <t>Therefore a possible loss of data during the conversion</t>
+  </si>
+  <si>
+    <t>sometimes pdfs are images</t>
+  </si>
+  <si>
+    <t>The solution:</t>
+  </si>
+  <si>
+    <t>Convert the PDF to an image</t>
+  </si>
+  <si>
+    <t>Use optical character recognition (OCR) to capture the text</t>
+  </si>
+  <si>
+    <t>Export to a text file</t>
+  </si>
+  <si>
+    <t>mangoCR to the rescue.</t>
+  </si>
+  <si>
+    <t>This package overcomes many of the problems above.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start coding or </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>generate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t xml:space="preserve"> with AI.</t>
+    </r>
+  </si>
+  <si>
+    <t>## import library</t>
+  </si>
+  <si>
+    <r>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>apt install tesseract-ocr</t>
+    </r>
+  </si>
+  <si>
+    <t>Reading package lists... Done</t>
+  </si>
+  <si>
+    <t>Building dependency tree... Done</t>
+  </si>
+  <si>
+    <t>Reading state information... Done</t>
+  </si>
+  <si>
+    <t>The following additional packages will be installed:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tesseract-ocr-eng tesseract-ocr-osd</t>
+  </si>
+  <si>
+    <t>The following NEW packages will be installed:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tesseract-ocr tesseract-ocr-eng tesseract-ocr-osd</t>
+  </si>
+  <si>
+    <t>0 upgraded, 3 newly installed, 0 to remove and 49 not upgraded.</t>
+  </si>
+  <si>
+    <t>Need to get 4,816 kB of archives.</t>
+  </si>
+  <si>
+    <t>After this operation, 15.6 MB of additional disk space will be used.</t>
+  </si>
+  <si>
+    <t>Get:1 http://archive.ubuntu.com/ubuntu jammy/universe amd64 tesseract-ocr-eng all 1:4.00~git30-7274cfa-1.1 [1,591 kB]</t>
+  </si>
+  <si>
+    <t>Get:2 http://archive.ubuntu.com/ubuntu jammy/universe amd64 tesseract-ocr-osd all 1:4.00~git30-7274cfa-1.1 [2,990 kB]</t>
+  </si>
+  <si>
+    <t>Get:3 http://archive.ubuntu.com/ubuntu jammy/universe amd64 tesseract-ocr amd64 4.1.1-2.1build1 [236 kB]</t>
+  </si>
+  <si>
+    <t>Fetched 4,816 kB in 1s (5,169 kB/s)</t>
+  </si>
+  <si>
+    <t>Selecting previously unselected package tesseract-ocr-eng.</t>
+  </si>
+  <si>
+    <t>(Reading database ... 123623 files and directories currently installed.)</t>
+  </si>
+  <si>
+    <t>Preparing to unpack .../tesseract-ocr-eng_1%3a4.00~git30-7274cfa-1.1_all.deb ...</t>
+  </si>
+  <si>
+    <t>Unpacking tesseract-ocr-eng (1:4.00~git30-7274cfa-1.1) ...</t>
+  </si>
+  <si>
+    <t>Selecting previously unselected package tesseract-ocr-osd.</t>
+  </si>
+  <si>
+    <t>Preparing to unpack .../tesseract-ocr-osd_1%3a4.00~git30-7274cfa-1.1_all.deb ...</t>
+  </si>
+  <si>
+    <t>Unpacking tesseract-ocr-osd (1:4.00~git30-7274cfa-1.1) ...</t>
+  </si>
+  <si>
+    <t>Selecting previously unselected package tesseract-ocr.</t>
+  </si>
+  <si>
+    <t>Preparing to unpack .../tesseract-ocr_4.1.1-2.1build1_amd64.deb ...</t>
+  </si>
+  <si>
+    <t>Unpacking tesseract-ocr (4.1.1-2.1build1) ...</t>
+  </si>
+  <si>
+    <t>Setting up tesseract-ocr-eng (1:4.00~git30-7274cfa-1.1) ...</t>
+  </si>
+  <si>
+    <t>Setting up tesseract-ocr-osd (1:4.00~git30-7274cfa-1.1) ...</t>
+  </si>
+  <si>
+    <t>Setting up tesseract-ocr (4.1.1-2.1build1) ...</t>
+  </si>
+  <si>
+    <t>Processing triggers for man-db (2.10.2-1) ...</t>
+  </si>
+  <si>
+    <t>## bank pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>pip install mangoCR</t>
+    </r>
+  </si>
+  <si>
+    <t>Collecting mangoCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Downloading mangoCR-0.1.3-py3-none-any.whl.metadata (4.0 kB)</t>
+  </si>
+  <si>
+    <t>Requirement already satisfied: pymupdf in /usr/local/lib/python3.10/dist-packages (from mangoCR) (1.24.13)</t>
+  </si>
+  <si>
+    <t>Collecting pytesseract (from mangoCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Downloading pytesseract-0.3.13-py3-none-any.whl.metadata (11 kB)</t>
+  </si>
+  <si>
+    <t>Requirement already satisfied: Pillow in /usr/local/lib/python3.10/dist-packages (from mangoCR) (10.4.0)</t>
+  </si>
+  <si>
+    <t>Requirement already satisfied: packaging&gt;=21.3 in /usr/local/lib/python3.10/dist-packages (from pytesseract-&gt;mangoCR) (24.1)</t>
+  </si>
+  <si>
+    <t>Downloading mangoCR-0.1.3-py3-none-any.whl (5.0 kB)</t>
+  </si>
+  <si>
+    <t>Downloading pytesseract-0.3.13-py3-none-any.whl (14 kB)</t>
+  </si>
+  <si>
+    <t>Installing collected packages: pytesseract, mangoCR</t>
+  </si>
+  <si>
+    <t>Successfully installed mangoCR-0.1.3 pytesseract-0.3.13</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> mangoCR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAF00DB"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> pdf2image_ocr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pdf2image_ocr(pdf_path, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"bank.md"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Processing PDF 1 of 1: columbus_bank_trust.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 1 of 5 in columbus_bank_trust.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 2 of 5 in columbus_bank_trust.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 3 of 5 in columbus_bank_trust.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 4 of 5 in columbus_bank_trust.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 5 of 5 in columbus_bank_trust.pdf</t>
+  </si>
+  <si>
+    <t>Finished processing columbus_bank_trust.pdf</t>
+  </si>
+  <si>
+    <t>OCR results have been saved to bank.md</t>
+  </si>
+  <si>
+    <t>## nixon pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>pdf_path = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"nixon-memo1.pdf"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pdf2image_ocr(pdf_path, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"memo1.md"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Processing PDF 1 of 1: nixon-memo1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 1 of 2 in nixon-memo1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 2 of 2 in nixon-memo1.pdf</t>
+  </si>
+  <si>
+    <t>Finished processing nixon-memo1.pdf</t>
+  </si>
+  <si>
+    <t>OCR results have been saved to memo1.md</t>
+  </si>
+  <si>
+    <t>What about a list of PDFs?</t>
+  </si>
+  <si>
+    <t>## import glob</t>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t> glob</t>
+    </r>
+  </si>
+  <si>
+    <t>## police cases memos</t>
+  </si>
+  <si>
+    <r>
+      <t>cases_list = glob.glob(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"case*.pdf"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>cases_list</t>
+  </si>
+  <si>
+    <t>['case-memos-3.pdf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'case-memos-4.pdf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'case-memos-5.pdf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'case-memos-1.pdf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'case-memos-2.pdf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'case-memos-6.pdf']</t>
+  </si>
+  <si>
+    <t>## mangoCR it</t>
+  </si>
+  <si>
+    <r>
+      <t>pdf2image_ocr(cases_list, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>"cases.md"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Var(--colab-code-font-family)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Processing PDF 1 of 6: case-memos-3.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 1 of 1 in case-memos-3.pdf</t>
+  </si>
+  <si>
+    <t>Finished processing case-memos-3.pdf</t>
+  </si>
+  <si>
+    <t>Processing PDF 2 of 6: case-memos-4.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 1 of 1 in case-memos-4.pdf</t>
+  </si>
+  <si>
+    <t>Finished processing case-memos-4.pdf</t>
+  </si>
+  <si>
+    <t>Processing PDF 3 of 6: case-memos-5.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 1 of 1 in case-memos-5.pdf</t>
+  </si>
+  <si>
+    <t>Finished processing case-memos-5.pdf</t>
+  </si>
+  <si>
+    <t>Processing PDF 4 of 6: case-memos-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 1 of 1 in case-memos-1.pdf</t>
+  </si>
+  <si>
+    <t>Finished processing case-memos-1.pdf</t>
+  </si>
+  <si>
+    <t>Processing PDF 5 of 6: case-memos-2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 1 of 1 in case-memos-2.pdf</t>
+  </si>
+  <si>
+    <t>Finished processing case-memos-2.pdf</t>
+  </si>
+  <si>
+    <t>Processing PDF 6 of 6: case-memos-6.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Processed page 1 of 1 in case-memos-6.pdf</t>
+  </si>
+  <si>
+    <t>Finished processing case-memos-6.pdf</t>
+  </si>
+  <si>
+    <t>OCR results have been saved to cases.md</t>
+  </si>
+  <si>
+    <t>Now you can tackle really any and all PDFs you encounter in your investigations!</t>
+  </si>
+  <si>
+    <t>Colab paid products - Cancel contracts here</t>
+  </si>
+  <si>
+    <t>fiber_manual_record</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>https://regex101.com/</t>
+  </si>
+  <si>
+    <t>\w</t>
+  </si>
+  <si>
+    <t>diferent colors mean each character is different</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>for group of words</t>
+  </si>
+  <si>
+    <t>dots for spaces</t>
+  </si>
+  <si>
+    <t>W(capital)</t>
+  </si>
+  <si>
+    <t>spaces and symbols</t>
+  </si>
+  <si>
+    <t>not underscore</t>
+  </si>
+  <si>
+    <t>start with \</t>
+  </si>
+  <si>
+    <t>[a-z]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plus will group </t>
+  </si>
+  <si>
+    <t>plus will group lowercase</t>
+  </si>
+  <si>
+    <t>[a-zA-Z]plus</t>
+  </si>
+  <si>
+    <t>ab{2}a</t>
+  </si>
+  <si>
+    <t>2 b's abba</t>
+  </si>
+  <si>
+    <t>ab{1,3}a</t>
+  </si>
+  <si>
+    <t>andything between 1-3 b's</t>
+  </si>
+  <si>
+    <t>ab{2,4}a</t>
+  </si>
+  <si>
+    <t>2-4 b's</t>
+  </si>
+  <si>
+    <t>\s{2}</t>
+  </si>
+  <si>
+    <t>s= spaces and end of lines</t>
+  </si>
+  <si>
+    <t>t= tab</t>
+  </si>
+  <si>
+    <t>2 spaces</t>
+  </si>
+  <si>
+    <t>beginning of line can be an anchor</t>
+  </si>
+  <si>
+    <t>hat is the beginning of the line</t>
+  </si>
+  <si>
+    <t>^\w+</t>
+  </si>
+  <si>
+    <t>groups of words at beginning of line</t>
+  </si>
+  <si>
+    <t>doesn't capture symbols except underscore _</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>end of the line</t>
+  </si>
+  <si>
+    <t>does not find $ signs</t>
+  </si>
+  <si>
+    <t>0$</t>
+  </si>
+  <si>
+    <t>zero at th end of the line</t>
+  </si>
+  <si>
+    <t>[0-5]+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - 5 </t>
+  </si>
+  <si>
+    <t>[0-5]</t>
+  </si>
+  <si>
+    <t>0-5 grouped</t>
+  </si>
+  <si>
+    <t>[^a-c]</t>
+  </si>
+  <si>
+    <t>from the beginning of the line get everything but lowercase a-c</t>
+  </si>
+  <si>
+    <t>\$</t>
+  </si>
+  <si>
+    <t>actually looking for $ sign</t>
+  </si>
+  <si>
+    <t>\^</t>
+  </si>
+  <si>
+    <t>find hat symbol</t>
+  </si>
+  <si>
+    <t>is  a regular expression term</t>
+  </si>
+  <si>
+    <t>greedy term</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>period finds everything except new lines</t>
+  </si>
+  <si>
+    <t>\$\d</t>
+  </si>
+  <si>
+    <t>anything less then 9$ or single digit</t>
+  </si>
+  <si>
+    <t>d = digit</t>
+  </si>
+  <si>
+    <t>\$\d{1}\s</t>
+  </si>
+  <si>
+    <t>one digit with space</t>
+  </si>
+  <si>
+    <t>\$\d{2}\.\d{2}</t>
+  </si>
+  <si>
+    <t>Any $ with 2 digits period then 2 digits</t>
+  </si>
+  <si>
+    <t>$51.99 $34.67</t>
+  </si>
+  <si>
+    <t>(dog|cat)</t>
+  </si>
+  <si>
+    <t>alternations</t>
+  </si>
+  <si>
+    <t>anchors</t>
+  </si>
+  <si>
+    <t>^   $</t>
+  </si>
+  <si>
+    <t>aba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">literal </t>
+  </si>
+  <si>
+    <t>\$\d{1}\b</t>
+  </si>
+  <si>
+    <t>\b is a boundry</t>
+  </si>
+  <si>
+    <t>boundry</t>
+  </si>
+  <si>
+    <t>\d+</t>
+  </si>
+  <si>
+    <t>1 or more</t>
+  </si>
+  <si>
+    <t>\d?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    + is a quantifier</t>
+  </si>
+  <si>
+    <t>\d*</t>
+  </si>
+  <si>
+    <t>* zero or more</t>
+  </si>
+  <si>
+    <t>[^1-3]</t>
+  </si>
+  <si>
+    <t>^ makes it an exclusion</t>
+  </si>
+  <si>
+    <t>\n</t>
+  </si>
+  <si>
+    <t>new line character</t>
+  </si>
+  <si>
+    <t>\r</t>
+  </si>
+  <si>
+    <t>return character</t>
+  </si>
+  <si>
+    <t>? Is zero occurance, zero to one times</t>
+  </si>
+  <si>
+    <t>\$\d{2}</t>
+  </si>
+  <si>
+    <t>\$\d{2},\d{3}\.\d{2}</t>
+  </si>
+  <si>
+    <t>\$\d{2},\d{2}</t>
+  </si>
+  <si>
+    <t>zero or one instance of this</t>
+  </si>
+  <si>
+    <t>\$\d{2})?</t>
+  </si>
+  <si>
+    <t>(,|\.)</t>
+  </si>
+  <si>
+    <t>might be a period or comma</t>
+  </si>
+  <si>
+    <t>(\d{</t>
+  </si>
+  <si>
+    <t>\$(\d{2})?(,|\.)((\d{3})?|\.?)(\.?\d{2})?</t>
+  </si>
+  <si>
+    <t>\$\d+[,\.]?\d*[\.]?d*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$, dig, either , or . (both), may or may not exist, more digits (0 or more), possible be a period, may or may not be zero digits after that. </t>
+  </si>
+  <si>
+    <t>\$\d{1,3}(,\d{1,3})*(\.\d{2})?</t>
+  </si>
+  <si>
+    <t>should catch all $ numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dollar, dig with 1-3 digits, then there's a comma, 1-3 dig, </t>
+  </si>
+  <si>
+    <t>parathacies * means there are 0-1 occurances of this</t>
+  </si>
+  <si>
+    <t>period, followed bu 2 dig number</t>
+  </si>
+  <si>
+    <t>? All of this is possible</t>
+  </si>
+  <si>
+    <t>EMAILS</t>
+  </si>
+  <si>
+    <t>\w+(\.\w+)?@\w+(\.\w+)*</t>
+  </si>
+  <si>
+    <t>\w+(\.\w+)*@\w+[\.\w+]*</t>
+  </si>
+  <si>
+    <t>\w+(\w food)</t>
+  </si>
+  <si>
+    <t>cat food, dog food, fish food</t>
+  </si>
+  <si>
+    <t>\w{3,4}\s{1}food</t>
+  </si>
+  <si>
+    <t>catches other words</t>
+  </si>
+  <si>
+    <t>(cat|dog|fish)\s+food</t>
+  </si>
+  <si>
+    <t>catches the extra spaces and anchors it to the words you want.</t>
+  </si>
+  <si>
+    <t>\s+</t>
+  </si>
+  <si>
+    <t>one or more spaces</t>
+  </si>
+  <si>
+    <t>PHONE NUMBERS</t>
+  </si>
+  <si>
+    <t>a lot of processing power, slow</t>
+  </si>
+  <si>
+    <t>either or</t>
+  </si>
+  <si>
+    <t>\w+((\s)(\/)(\w+))*</t>
+  </si>
+  <si>
+    <t>\w+((\s|\/)(w+))*(\/)?(\w+)*d?</t>
+  </si>
+  <si>
+    <t>^\w+((\s|\/?)(\w+))*\(|\)</t>
+  </si>
+  <si>
+    <t>^\[a-zA-Z]((\s|\/?)*(\w+))*|\(|\w+\s\w+\)*</t>
+  </si>
+  <si>
+    <t>^\w+((\s|\/)\(?[\w+\s]?)*(\w+[\s\w+]\)*)</t>
+  </si>
+  <si>
+    <t>Homework attempt</t>
+  </si>
+  <si>
+    <t>\([^)]+\)</t>
+  </si>
+  <si>
+    <t>parentheses</t>
+  </si>
+  <si>
+    <t>/\(([^)]+)\)/g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="70">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6918,6 +10284,191 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Var(--colab-chrome-font-family)"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--colab-chrome-font-family)"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="23"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAF00DB"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA31515"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF257693"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0431FA"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF319331"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF116644"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF116644"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF257693"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF795E26"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF001080"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0C0D0E"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7142,7 +10693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -7258,6 +10809,39 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7600,6 +11184,73 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CF5CF2-1FED-7CAC-B141-FF2C0DC249BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3009900"/>
+          <a:ext cx="406400" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9261,6 +12912,1250 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBCF169-9633-E74D-B80D-F292D2186871}">
+  <dimension ref="A1:F122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <cols>
+    <col min="1" max="1" width="61.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="83" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="46">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="24">
+      <c r="B18" s="80" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="24">
+      <c r="B19" s="80" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="24">
+      <c r="B20" s="80" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="24">
+      <c r="B21" s="80"/>
+      <c r="C21" s="82" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="24">
+      <c r="B22" s="80"/>
+      <c r="E22" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="24">
+      <c r="B23" s="80"/>
+    </row>
+    <row r="24" spans="2:6" ht="24">
+      <c r="B24" s="80" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="24">
+      <c r="B25" s="80"/>
+      <c r="E25" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="24">
+      <c r="B26" s="80"/>
+      <c r="E26" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="24">
+      <c r="B27" s="80"/>
+      <c r="E27" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="24">
+      <c r="B28" s="80"/>
+    </row>
+    <row r="29" spans="2:6" ht="24">
+      <c r="B29" s="80" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="24">
+      <c r="B30" s="80"/>
+      <c r="E30" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="24">
+      <c r="B31" s="80"/>
+    </row>
+    <row r="32" spans="2:6" ht="24">
+      <c r="B32" s="80"/>
+    </row>
+    <row r="33" spans="2:6" ht="24">
+      <c r="B33" s="80" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="24">
+      <c r="B34" s="80"/>
+      <c r="E34" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="24">
+      <c r="B35" s="80"/>
+      <c r="E35" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="24">
+      <c r="B36" s="80"/>
+      <c r="E36" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="24">
+      <c r="B37" s="80"/>
+      <c r="E37" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="24">
+      <c r="B38" s="80"/>
+      <c r="E38" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="24">
+      <c r="B39" s="80" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="24">
+      <c r="B40" s="80"/>
+      <c r="E40" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="85" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="85" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="85" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F43" s="81" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="85" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="85" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="85" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="86" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="85" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="24">
+      <c r="B49" s="80"/>
+      <c r="E49" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="24">
+      <c r="B50" s="80"/>
+    </row>
+    <row r="51" spans="2:6" ht="24">
+      <c r="B51" s="80"/>
+    </row>
+    <row r="52" spans="2:6" ht="24">
+      <c r="B52" s="80" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="87" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C53" s="83" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="88" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C54" s="83" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="88" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="88" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="88" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="88" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="84" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="85" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="85" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="85" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="84"/>
+      <c r="E64" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="84"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="84" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="84" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E67" s="81" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="84" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="84" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E71" s="89" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="84" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="E73" s="75" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="E74" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="E75" s="75" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="E76" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="E78" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="E80" s="40"/>
+    </row>
+    <row r="81" spans="2:6" ht="24">
+      <c r="B81" s="80" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="85" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C82" s="83" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="36">
+      <c r="B83" s="85" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C83" s="83" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F83">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="E84" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="E85" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="85" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="53">
+      <c r="B88" s="85" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E88" s="40" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="85" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="85" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="36">
+      <c r="B92" s="85" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E92" s="40" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="53">
+      <c r="E93" s="40" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="70">
+      <c r="B96" s="80" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C96" s="83" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E96" s="40" t="s">
+        <v>1640</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="104">
+      <c r="E97" s="40" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="138">
+      <c r="E98" s="40" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="138">
+      <c r="C99" s="90" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="155">
+      <c r="E100" s="40" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="36">
+      <c r="B102" s="48" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E102" s="40" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="C103" s="83" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="53">
+      <c r="C104" s="83" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E104" s="40" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="36">
+      <c r="B106" s="84" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C106" s="83" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E106" s="40" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="84" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C107" s="83" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F107">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="E108" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="E109" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="E110" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F110">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" ht="36">
+      <c r="C111" s="83" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="E112" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="70">
+      <c r="E113" s="40" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="E114" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="E116" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="E117" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="53">
+      <c r="B119" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E119" s="40" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="E120" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="E121" s="40"/>
+    </row>
+    <row r="122" spans="2:6" ht="24">
+      <c r="B122" s="48" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9683093-9877-944F-A4F5-0280069FC8E0}">
+  <dimension ref="A4:E120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B104" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
+  <cols>
+    <col min="1" max="1" width="59.6640625" style="113" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" style="113" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.33203125" customWidth="1"/>
+    <col min="5" max="5" width="52.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3">
+      <c r="A4" s="113" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="113" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="113" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="113" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="113" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="113" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="113" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="113" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="113" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="113" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="113" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="113" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="113" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="113" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="113" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="113" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="113" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="113" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="113" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B28" s="113" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="113" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B29" s="113" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="113" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="113" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="113" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B33" s="113" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="113" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B35" s="113" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="113" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="113" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="113" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="113" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="113" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="113" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="113" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="113" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="75">
+      <c r="A45" s="116" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="113" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B47" s="113" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="113" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B48" s="113" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="113" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="113" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="113" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B52" s="113" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="113" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B54" s="113" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="113" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="113" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="113" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="113" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="113" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B61" s="113" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="D62" s="113"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="113" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B63" s="113" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D63" s="113" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="113" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D64" s="113" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="113" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D65" s="113" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="113" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="113" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D68" s="114" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="113" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="113" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B71" s="113" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D71" s="113" t="s">
+        <v>2349</v>
+      </c>
+      <c r="E71" s="113" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="113" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D72" s="114" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E72" s="113" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="D73" s="114" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="113" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B74" s="113" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" s="113" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D75" s="114" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="50">
+      <c r="D76" s="115" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="113" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B78" s="113" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D78" s="114" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="D79" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="113" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B80" s="113" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="D81" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="113" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B82" s="113" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="D83" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="113" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B84" s="113" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="113" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B86" s="113" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="D88" s="80" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="D89" s="113" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="D90" s="113" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="D92" s="113" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="D93" s="113" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="D94" s="114" t="s">
+        <v>2367</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="D95" s="113" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="D96" s="113" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="48" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="D113" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="D114" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="D115" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="D116" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="D117" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="D118" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4">
+      <c r="C120" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D120" s="117" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F620CBF2-9321-C843-9EBB-4F4C426F7621}">
   <dimension ref="A1:H2842"/>
   <sheetViews>
@@ -15767,7 +20662,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="1652" spans="1:1" ht="252">
+    <row r="1652" spans="1:1" ht="234">
       <c r="A1652" s="50" t="s">
         <v>186</v>
       </c>
@@ -26014,7 +30909,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="306">
+    <row r="80" spans="1:1" ht="270">
       <c r="A80" s="50" t="s">
         <v>186</v>
       </c>
@@ -31096,698 +35991,3615 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBCF169-9633-E74D-B80D-F292D2186871}">
-  <dimension ref="A1:F122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DFFF3D-61F8-F04C-ABC4-55B48F55AB1F}">
+  <dimension ref="A1:A901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="83" customWidth="1"/>
-    <col min="5" max="5" width="70.33203125" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="122.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="46">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="90" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="24">
-      <c r="B18" s="80" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="24">
-      <c r="B19" s="80" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="24">
-      <c r="B20" s="80" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="24">
-      <c r="B21" s="80"/>
-      <c r="C21" s="82" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="24">
-      <c r="B22" s="80"/>
-      <c r="E22" t="s">
-        <v>1557</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="24">
-      <c r="B23" s="80"/>
-    </row>
-    <row r="24" spans="2:6" ht="24">
-      <c r="B24" s="80" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="24">
-      <c r="B25" s="80"/>
-      <c r="E25" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="24">
-      <c r="B26" s="80"/>
-      <c r="E26" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="24">
-      <c r="B27" s="80"/>
-      <c r="E27" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="24">
-      <c r="B28" s="80"/>
-    </row>
-    <row r="29" spans="2:6" ht="24">
-      <c r="B29" s="80" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>1561</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="24">
-      <c r="B30" s="80"/>
-      <c r="E30" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="24">
-      <c r="B31" s="80"/>
-    </row>
-    <row r="32" spans="2:6" ht="24">
-      <c r="B32" s="80"/>
-    </row>
-    <row r="33" spans="2:6" ht="24">
-      <c r="B33" s="80" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C33" s="83" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="24">
-      <c r="B34" s="80"/>
-      <c r="E34" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="24">
-      <c r="B35" s="80"/>
-      <c r="E35" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="24">
-      <c r="B36" s="80"/>
-      <c r="E36" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="24">
-      <c r="B37" s="80"/>
-      <c r="E37" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="24">
-      <c r="B38" s="80"/>
-      <c r="E38" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="24">
-      <c r="B39" s="80" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="24">
-      <c r="B40" s="80"/>
-      <c r="E40" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="85" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="85" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="85" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F43" s="81" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="85" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="85" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="85" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="86" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="85" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="24">
-      <c r="B49" s="80"/>
-      <c r="E49" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="24">
-      <c r="B50" s="80"/>
-    </row>
-    <row r="51" spans="2:6" ht="24">
-      <c r="B51" s="80"/>
-    </row>
-    <row r="52" spans="2:6" ht="24">
-      <c r="B52" s="80" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="87" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C53" s="83" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="88" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C54" s="83" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="88" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="88" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="88" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="88" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="84" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="85" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1599</v>
-      </c>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="85" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1600</v>
-      </c>
-      <c r="F62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="85" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="84"/>
-      <c r="E64" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="84"/>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="84" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="84" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E67" s="81" t="s">
-        <v>1606</v>
-      </c>
-      <c r="F67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="84" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="84" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E71" s="89" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" s="84" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="E73" s="75" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="E74" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="E75" s="75" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="E76" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="E78" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="E80" s="40"/>
-    </row>
-    <row r="81" spans="2:6" ht="24">
-      <c r="B81" s="80" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="85" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C82" s="83" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" ht="36">
-      <c r="B83" s="85" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C83" s="83" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F83">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="E84" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="E85" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F85" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="85" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="70">
-      <c r="B88" s="85" t="s">
-        <v>1633</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>1629</v>
-      </c>
-      <c r="F88" s="40" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="85" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="85" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" ht="70">
-      <c r="B92" s="85" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E92" s="40" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" ht="53">
-      <c r="E93" s="40" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" ht="70">
-      <c r="B96" s="80" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C96" s="83" t="s">
-        <v>1639</v>
-      </c>
-      <c r="E96" s="40" t="s">
-        <v>1640</v>
-      </c>
-      <c r="F96" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" ht="104">
-      <c r="E97" s="40" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" ht="138">
-      <c r="E98" s="40" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" ht="138">
-      <c r="C99" s="90" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E99" s="40" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="155">
-      <c r="E100" s="40" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" ht="36">
-      <c r="B102" s="48" t="s">
-        <v>1647</v>
-      </c>
-      <c r="E102" s="40" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="C103" s="83" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" ht="53">
-      <c r="C104" s="83" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E104" s="40" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F104" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="36">
-      <c r="B106" s="84" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C106" s="83" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E106" s="40" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" s="84" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C107" s="83" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1658</v>
-      </c>
-      <c r="F107">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="E108" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="E109" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="E110" t="s">
-        <v>1661</v>
-      </c>
-      <c r="F110">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" ht="36">
-      <c r="C111" s="83" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E111" s="40" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="E112" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F112" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" ht="70">
-      <c r="E113" s="40" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="E114" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6">
-      <c r="B115" t="s">
-        <v>1668</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="E116" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="E117" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" ht="53">
-      <c r="B119" t="s">
-        <v>1670</v>
-      </c>
-      <c r="E119" s="40" t="s">
-        <v>1672</v>
-      </c>
-      <c r="F119" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="E120" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="E121" s="40"/>
-    </row>
-    <row r="122" spans="2:6" ht="24">
-      <c r="B122" s="48" t="s">
-        <v>1674</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="92" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17">
+      <c r="A2" s="93" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17">
+      <c r="A3" s="93"/>
+    </row>
+    <row r="4" spans="1:1" ht="17">
+      <c r="A4" s="94"/>
+    </row>
+    <row r="5" spans="1:1" ht="17">
+      <c r="A5" s="94"/>
+    </row>
+    <row r="6" spans="1:1" ht="17">
+      <c r="A6" s="94"/>
+    </row>
+    <row r="7" spans="1:1" ht="17">
+      <c r="A7" s="94"/>
+    </row>
+    <row r="8" spans="1:1" ht="17">
+      <c r="A8" s="94"/>
+    </row>
+    <row r="9" spans="1:1" ht="17">
+      <c r="A9" s="94"/>
+    </row>
+    <row r="10" spans="1:1" ht="17">
+      <c r="A10" s="94"/>
+    </row>
+    <row r="11" spans="1:1" ht="17">
+      <c r="A11" s="93"/>
+    </row>
+    <row r="12" spans="1:1" ht="17">
+      <c r="A12" s="93"/>
+    </row>
+    <row r="13" spans="1:1" ht="17">
+      <c r="A13" s="93"/>
+    </row>
+    <row r="14" spans="1:1" ht="17">
+      <c r="A14" s="93"/>
+    </row>
+    <row r="16" spans="1:1" ht="17">
+      <c r="A16" s="95"/>
+    </row>
+    <row r="17" spans="1:1" ht="18">
+      <c r="A17" s="91"/>
+    </row>
+    <row r="18" spans="1:1" ht="18">
+      <c r="A18" s="91"/>
+    </row>
+    <row r="19" spans="1:1" ht="18">
+      <c r="A19" s="91"/>
+    </row>
+    <row r="20" spans="1:1" ht="18">
+      <c r="A20" s="91"/>
+    </row>
+    <row r="21" spans="1:1" ht="18">
+      <c r="A21" s="91"/>
+    </row>
+    <row r="22" spans="1:1" ht="18">
+      <c r="A22" s="91"/>
+    </row>
+    <row r="23" spans="1:1" ht="18">
+      <c r="A23" s="91"/>
+    </row>
+    <row r="24" spans="1:1" ht="18">
+      <c r="A24" s="91"/>
+    </row>
+    <row r="25" spans="1:1" ht="18">
+      <c r="A25" s="91"/>
+    </row>
+    <row r="26" spans="1:1" ht="18">
+      <c r="A26" s="91"/>
+    </row>
+    <row r="27" spans="1:1" ht="18">
+      <c r="A27" s="91"/>
+    </row>
+    <row r="28" spans="1:1" ht="18">
+      <c r="A28" s="91"/>
+    </row>
+    <row r="31" spans="1:1" ht="18">
+      <c r="A31" s="91"/>
+    </row>
+    <row r="32" spans="1:1" ht="18">
+      <c r="A32" s="91"/>
+    </row>
+    <row r="33" spans="1:1" ht="18">
+      <c r="A33" s="91"/>
+    </row>
+    <row r="34" spans="1:1" ht="18">
+      <c r="A34" s="91"/>
+    </row>
+    <row r="35" spans="1:1" ht="18">
+      <c r="A35" s="91"/>
+    </row>
+    <row r="36" spans="1:1" ht="18">
+      <c r="A36" s="91"/>
+    </row>
+    <row r="37" spans="1:1" ht="18">
+      <c r="A37" s="91"/>
+    </row>
+    <row r="38" spans="1:1" ht="18">
+      <c r="A38" s="91"/>
+    </row>
+    <row r="39" spans="1:1" ht="33">
+      <c r="A39" s="96" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="63">
+      <c r="A40" s="112" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="20" customHeight="1">
+      <c r="A41" s="97" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="20" customHeight="1">
+      <c r="A42" s="97" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="20" customHeight="1">
+      <c r="A43" s="97" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="20" customHeight="1">
+      <c r="A44" s="97" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18">
+      <c r="A47" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="29">
+      <c r="A48" s="98" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="20">
+      <c r="A49" s="97" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="20">
+      <c r="A50" s="97" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="92" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="92" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="20">
+      <c r="A53" s="97" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="23">
+      <c r="A54" s="99" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="22">
+      <c r="A57" s="97" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18">
+      <c r="A60" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="101" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="102" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="22">
+      <c r="A65" s="97" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="18">
+      <c r="A68" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="101" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="102" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="102" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="102" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="102" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="102" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18">
+      <c r="A77" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="103" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="104" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="104" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="101" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="102" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="102" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="102" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="102" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="102" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="102" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="102" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="102" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="102" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="102" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="102" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="102" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="20">
+      <c r="A100" s="97" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="22">
+      <c r="A101" s="97" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="20">
+      <c r="A102" s="97" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="92" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18">
+      <c r="A106" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="103" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="104" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="101" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18">
+      <c r="A115" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="103" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="101" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="101" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="102" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="102" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="102" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="102" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="102" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="102" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="102" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="102" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="102" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="102" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="102" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="102" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="102" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="102" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="102" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="102" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="102" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="102" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="102" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="102" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="102" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="102" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="102" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="102" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="102" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="102" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="102" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="102" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="18">
+      <c r="A149" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="19">
+      <c r="A150" s="105" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="19">
+      <c r="A151" s="106" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="18">
+      <c r="A155" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="19">
+      <c r="A156" s="105" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="19">
+      <c r="A157" s="106" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="18">
+      <c r="A160" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="19">
+      <c r="A161" s="105" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="19">
+      <c r="A162" s="107" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="19">
+      <c r="A163" s="107" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="18">
+      <c r="A166" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="103" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="18">
+      <c r="A171" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="103" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="101" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="18">
+      <c r="A176" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="25">
+      <c r="A177" s="108" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="20">
+      <c r="A178" s="97" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="18">
+      <c r="A181" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="103" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="101" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="101" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="102" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="102" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="102" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="102" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="102" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="102" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="102" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="102" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="102" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="102" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="102" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="102" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="102" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="102" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="102" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="102" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="102" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="102" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="102" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="102" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="102" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="102" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="102" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="102" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="102" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="102" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="102" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="102" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="102" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="102" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="102" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="102" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="102" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="102" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="102" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="102" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="102" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="102" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="102" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="102" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="102" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="102" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="102" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="102" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="102" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="102" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="102" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="102" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="102" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="102" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="102" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="102" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="102" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="102" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="102" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="102" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="18">
+      <c r="A247" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="103" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="101" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="18">
+      <c r="A252" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="103" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="18">
+      <c r="A257" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="29">
+      <c r="A258" s="98" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="25">
+      <c r="A259" s="108" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="18">
+      <c r="A262" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="103" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="103" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="101" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="101" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="18">
+      <c r="A269" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="103" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="101" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="101" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="102" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="102" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="102" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="102" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="102" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="102" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="102" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="102" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="102" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="102" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="102" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="102" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="102" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="102" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="102" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="102" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="102" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="102" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="102" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="102" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="102" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="102" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="102" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="102" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="102" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="102" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="102" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="102" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="102" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="102" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="102" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="102" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="102" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="102" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="102" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="102" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="102" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="102" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="102" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="102" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="102" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="102" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="102" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="102" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="102" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="102" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="102" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="102" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="102" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="102" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="102" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="102" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="102" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="102" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="102" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="102" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="102" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="102" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="102" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="102" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="102" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="102" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="102" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="102" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="102" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="102" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="102" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="102" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="102" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="102" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="102" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="102" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="102" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="102" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="102" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="102" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="102" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="102" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="102" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="102" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="102" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="102" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="102" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="102" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="102" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="102" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="102" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="102" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="102" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="102" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="102" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="102" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="102" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="102" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="102" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="102" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="102" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="102" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="102" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="102" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="102" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="102" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="102" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="102" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="18">
+      <c r="A379" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="103" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="18">
+      <c r="A384" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="103" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="101" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="101" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="18">
+      <c r="A390" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="103" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="101" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="103" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="103" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" ht="18">
+      <c r="A398" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="25">
+      <c r="A399" s="108" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="18">
+      <c r="A402" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="103" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="101" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="101" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="101" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="102" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="102" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="102" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="102" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="102" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="102" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="102" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="102" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="102" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="102" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="102" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="102" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="102" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="102" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="102" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="102" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="102" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="102" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="102" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="102" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="102" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="102" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="102" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="102" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="102" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="102" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="102" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="102" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="102" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="102" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="102" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="102" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="102" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="102" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="102" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="102" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="102" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="102" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="102" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="102" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="102" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="102" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="102" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="102" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="102" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="102" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="102" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="102" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="102" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="102" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="102" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="102" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="102" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="102" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="102" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="102" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="102" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="102" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="102" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="102" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="102" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="102" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="102" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="102" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="102" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="102" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="102" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="102" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="102" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="102" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="102" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="102" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="102" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="102" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="102" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="102" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="102" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="102" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="102" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="102" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="102" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="102" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="102" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="102" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="102" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="102" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="102" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="102" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="102" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="102" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="102" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="102" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="102" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="102" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="102" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="102" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="102" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="102" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="102" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="102" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="102" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="102" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="102" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="102" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="102" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="102" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="102" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="102" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="102" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="102" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="102" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="102" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="102" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="102" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="102" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="102" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="102" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="102" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="102" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="102" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="102" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="102" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="102" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="102" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="102" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="102" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="102" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="102" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="102" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="102" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="102" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="102" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="102" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="102" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="102" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="102" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="102" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="102" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="102" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="102" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="102" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="102" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="102" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="102" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="102" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="102" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="102" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="102" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="102" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="102" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="102" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="102" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="102" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="102" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="102" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="102" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" ht="18">
+      <c r="A565" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="103" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="101" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" ht="23">
+      <c r="A570" s="99" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" ht="20">
+      <c r="A571" s="97" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" ht="18">
+      <c r="A574" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" ht="33">
+      <c r="A575" s="96" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" ht="20">
+      <c r="A576" s="97" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" ht="20">
+      <c r="A577" s="97" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" ht="20">
+      <c r="A578" s="97" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" ht="20">
+      <c r="A579" s="97" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" ht="20">
+      <c r="A580" s="97" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" ht="20">
+      <c r="A581" s="97" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" ht="18">
+      <c r="A585" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" ht="29">
+      <c r="A586" s="98" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" ht="20">
+      <c r="A587" s="97" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" ht="20">
+      <c r="A588" s="97" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="92" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" ht="20">
+      <c r="A590" s="97" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" ht="25">
+      <c r="A591" s="108" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" ht="20">
+      <c r="A592" s="97" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" ht="20">
+      <c r="A593" s="97" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" ht="18">
+      <c r="A596" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="101" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="102" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="102" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="102" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="102" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="102" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="102" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="102" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" s="102" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="102" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" ht="18">
+      <c r="A609" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" s="104" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" ht="18">
+      <c r="A613" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" ht="23">
+      <c r="A614" s="109" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" ht="22">
+      <c r="A615" s="110" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" ht="20">
+      <c r="A616" s="97" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" ht="18">
+      <c r="A619" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" s="103" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" s="101" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" s="101" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" ht="18">
+      <c r="A625" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" ht="23">
+      <c r="A626" s="99" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" ht="18">
+      <c r="A629" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="103" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="101" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="101" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" ht="18">
+      <c r="A635" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" ht="29">
+      <c r="A636" s="98" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" ht="18">
+      <c r="A639" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="103" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="101" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="101" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="101" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="102" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" ht="18">
+      <c r="A647" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="103" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="101" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" ht="18">
+      <c r="A654" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="103" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="101" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="101" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" s="101" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" s="102" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" ht="18">
+      <c r="A662" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" s="103" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" s="101" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" s="101" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" ht="18">
+      <c r="A669" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" ht="24">
+      <c r="A670" s="99" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" ht="18">
+      <c r="A673" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="103" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" s="101" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="104" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" s="101" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" ht="18">
+      <c r="A680" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" s="103" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" s="111" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" s="101" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" s="101" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" ht="18">
+      <c r="A689" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" s="103" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" s="101" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" ht="18">
+      <c r="A694" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" ht="25">
+      <c r="A695" s="108" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" ht="18">
+      <c r="A698" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" s="103" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" s="103" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" s="101" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" s="101" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" s="101" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" ht="18">
+      <c r="A706" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" s="103" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" s="101" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" s="101" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" s="101" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" ht="18">
+      <c r="A713" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" s="103" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" s="101" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" ht="18">
+      <c r="A719" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" s="103" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" s="101" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" s="101" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" s="101" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" ht="18">
+      <c r="A726" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" ht="25">
+      <c r="A727" s="108" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" ht="18">
+      <c r="A730" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" s="103" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" s="103" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" ht="18">
+      <c r="A736" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" ht="33">
+      <c r="A737" s="96" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" ht="18">
+      <c r="A740" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" ht="25">
+      <c r="A741" s="108" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" ht="20">
+      <c r="A742" s="97" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" ht="20">
+      <c r="A743" s="97" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" ht="20">
+      <c r="A744" s="97" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" ht="25">
+      <c r="A745" s="108" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" ht="20">
+      <c r="A746" s="97" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" ht="20">
+      <c r="A747" s="97" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" ht="20">
+      <c r="A748" s="97" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" ht="25">
+      <c r="A749" s="108" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" s="92" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" ht="18">
+      <c r="A753" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" ht="18">
+      <c r="A755" s="100" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" ht="18">
+      <c r="A758" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" s="103" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" s="111" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" s="102" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" s="102" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" s="102" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" s="102" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" s="102" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" s="102" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" s="102" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" s="102" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" s="102" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" s="102" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" s="92" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" s="92" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" s="92" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" s="102" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" s="102" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" s="102" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" s="102" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" s="102" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" s="102" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" s="102" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" s="102" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" s="102" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" s="102" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" s="102" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" s="102" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" s="102" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" s="102" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" s="102" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" ht="18">
+      <c r="A791" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792" s="103" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" s="111" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794" s="102" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" s="102" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" s="102" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" s="102" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" s="102" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799" s="102" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" s="102" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" s="102" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" s="102" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" s="102" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" s="102" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" ht="18">
+      <c r="A807" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" s="104" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" ht="18">
+      <c r="A811" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814" s="101" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815" s="101" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816" s="102" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" s="102" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" s="102" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819" s="102" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" s="102" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" s="102" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822" s="102" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" s="102" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" ht="18">
+      <c r="A827" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" s="103" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829" s="101" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" s="101" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" s="102" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832" s="102" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" s="102" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834" s="102" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836" s="102" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" ht="18">
+      <c r="A839" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" ht="29">
+      <c r="A840" s="98" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" ht="18">
+      <c r="A843" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" s="103" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845" s="104" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" ht="18">
+      <c r="A848" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" s="103" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850" s="101" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" s="101" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852" s="102" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853" s="102" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854" s="102" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855" s="102" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856" s="102" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857" s="102" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" ht="18">
+      <c r="A860" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861" s="103" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862" s="101" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863" s="102" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864" s="102" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" s="102" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867" s="102" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868" s="102" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" s="102" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871" s="102" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" s="102" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" s="102" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" s="102" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" s="102" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877" s="102" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879" s="102" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880" s="102" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" s="102" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883" s="102" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884" s="102" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885" s="102" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887" s="102" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" ht="18">
+      <c r="A890" s="91" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" ht="29">
+      <c r="A891" s="98" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" ht="18">
+      <c r="A894" s="100" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" ht="18">
+      <c r="A896" s="100" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" ht="18">
+      <c r="A899" s="91" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" ht="18">
+      <c r="A900" s="91" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" ht="18">
+      <c r="A901" s="91" t="s">
+        <v>2266</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="top-toolbar" display="https://colab.research.google.com/drive/1IF5rExhNRHq-mABhlN43ii_8Cju43FwB - top-toolbar" xr:uid="{CD9EEDC3-86A5-7F46-A9AA-BDA0A08254B1}"/>
+    <hyperlink ref="A51" r:id="rId2" display="https://www.google.com/url?q=https%3A%2F%2Fdrive.google.com%2Ffile%2Fd%2F1_zzdyqwfMP6F0ukmmlMBaXTwZ36Iadba%2Fview%3Fusp%3Dsharing" xr:uid="{4AB50836-993E-7E4D-89B7-2965B3003221}"/>
+    <hyperlink ref="A52" r:id="rId3" display="https://www.google.com/url?q=https%3A%2F%2Ftabula.technology%2F" xr:uid="{988F6784-CB67-804D-A6EB-7755B2C107EA}"/>
+    <hyperlink ref="A103" r:id="rId4" display="https://www.google.com/url?q=https%3A%2F%2Fwww.oracle.com%2Fjava%2Ftechnologies%2Fdownloads%2F%23jdk17-mac" xr:uid="{723012BC-AEC6-C345-9D76-6B672C2AD42B}"/>
+    <hyperlink ref="A589" r:id="rId5" display="https://www.google.com/url?q=https%3A%2F%2Fdrive.google.com%2Ffile%2Fd%2F1flBD4b2Dz6_6EfC1VuU-6Uv2FAYtKbia%2Fview%3Fusp%3Dsharing" xr:uid="{823800D3-CEC0-1D49-B1DE-DCA86BC987D2}"/>
+    <hyperlink ref="A750" r:id="rId6" display="https://www.google.com/url?q=https%3A%2F%2Fpypi.org%2Fproject%2FmangoCR%2F" xr:uid="{5A1A730B-55D1-9947-90E9-CBFFC5DB85F9}"/>
+    <hyperlink ref="A771" r:id="rId7" display="http://archive.ubuntu.com/ubuntu" xr:uid="{107473C0-01DF-4C4A-8457-7ABB464A9B3D}"/>
+    <hyperlink ref="A772" r:id="rId8" display="http://archive.ubuntu.com/ubuntu" xr:uid="{CFC989ED-74F4-8E4F-AB75-9383E5D813DC}"/>
+    <hyperlink ref="A773" r:id="rId9" display="http://archive.ubuntu.com/ubuntu" xr:uid="{56F5D352-E81A-FB4A-A7B9-200A023FC785}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/Python2/Cheat_Sheet2.xlsx
+++ b/Python2/Cheat_Sheet2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GSB/Documents/2024/CUNY/Python2/Python2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D54F5E-2AED-F841-9E99-B990870BDFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57974B0-67AA-4148-A1C9-AA275410E648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="24180" windowHeight="17080" firstSheet="7" activeTab="10" xr2:uid="{78D90E6A-84B8-CE45-89A0-B6509A31357A}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="24180" windowHeight="17080" firstSheet="6" activeTab="10" xr2:uid="{78D90E6A-84B8-CE45-89A0-B6509A31357A}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1A" sheetId="1" r:id="rId1"/>
@@ -13612,8 +13612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9683093-9877-944F-A4F5-0280069FC8E0}">
   <dimension ref="A4:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B104" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -13806,7 +13806,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="75">
+    <row r="45" spans="1:3" ht="50">
       <c r="A45" s="116" t="s">
         <v>2306</v>
       </c>
@@ -34853,8 +34853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D0F301-05E2-BB43-A8BF-50D9AA990824}">
   <dimension ref="A1:A265"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A57"/>
+    <sheetView topLeftCell="A279" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -35994,7 +35994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DFFF3D-61F8-F04C-ABC4-55B48F55AB1F}">
   <dimension ref="A1:A901"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41:A44"/>
     </sheetView>
   </sheetViews>

--- a/Python2/Cheat_Sheet2.xlsx
+++ b/Python2/Cheat_Sheet2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GSB/Documents/2024/CUNY/Python2/Python2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AD3CB1-0F9B-FF44-B2CB-301F31CC7848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A374978E-2808-034E-AA24-0FEA992F1485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1340" windowWidth="24180" windowHeight="17080" firstSheet="7" activeTab="12" xr2:uid="{78D90E6A-84B8-CE45-89A0-B6509A31357A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="7" activeTab="12" xr2:uid="{78D90E6A-84B8-CE45-89A0-B6509A31357A}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1A" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4997" uniqueCount="2388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4999" uniqueCount="2390">
   <si>
     <t>Python Review</t>
   </si>
@@ -10050,12 +10050,78 @@
   <si>
     <t>df = pd.DataFrame(soup)</t>
   </si>
+  <si>
+    <t>df[…]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>df[...]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> syntax in pandas is commonly used to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filter rows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a DataFrame.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="71">
+  <fonts count="73">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10488,6 +10554,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10712,7 +10792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -10864,6 +10944,7 @@
     <xf numFmtId="0" fontId="70" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -25014,7 +25095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBCF169-9633-E74D-B80D-F292D2186871}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -25709,15 +25790,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2756730-1ADB-AD4A-95D0-815E7B703BC7}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C30" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="24"/>
   <cols>
     <col min="1" max="1" width="81" style="113" customWidth="1"/>
+    <col min="2" max="2" width="108.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27">
@@ -25816,6 +25898,14 @@
     <row r="30" spans="1:1">
       <c r="A30" s="113" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26">
+      <c r="A40" s="113" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B40" s="121" t="s">
+        <v>2389</v>
       </c>
     </row>
   </sheetData>

--- a/Python2/Cheat_Sheet2.xlsx
+++ b/Python2/Cheat_Sheet2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GSB/Documents/2024/CUNY/Python2/Python2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A374978E-2808-034E-AA24-0FEA992F1485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2011705-7D36-7649-8623-A9A3C4EF4E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="7" activeTab="12" xr2:uid="{78D90E6A-84B8-CE45-89A0-B6509A31357A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="7" activeTab="13" xr2:uid="{78D90E6A-84B8-CE45-89A0-B6509A31357A}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1A" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4999" uniqueCount="2390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5002" uniqueCount="2393">
   <si>
     <t>Python Review</t>
   </si>
@@ -10116,12 +10116,118 @@
       <t xml:space="preserve"> in a DataFrame.</t>
     </r>
   </si>
+  <si>
+    <t>Formatting Numbers to Thousands</t>
+  </si>
+  <si>
+    <t>## format all tables</t>
+  </si>
+  <si>
+    <r>
+      <t>pd</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>options</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>display</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">float_format </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '{:,.2f}'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>format</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="73">
+  <fonts count="76">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10568,6 +10674,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF212121"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF212121"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF212121"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10792,7 +10918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -10945,6 +11071,8 @@
     <xf numFmtId="0" fontId="70" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -25095,7 +25223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBCF169-9633-E74D-B80D-F292D2186871}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -25792,7 +25920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2756730-1ADB-AD4A-95D0-815E7B703BC7}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C30" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -25916,12 +26044,32 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83940D90-E002-5E41-AD1D-635AD7E33F55}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20">
+      <c r="A1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B1" s="122" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20">
+      <c r="B2" s="123" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
